--- a/Input/FidelityUnited/rateSheet.xlsx
+++ b/Input/FidelityUnited/rateSheet.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">relation</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">Plan 1</t>
@@ -113,8 +113,7 @@
     <t xml:space="preserve">Plan 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Nextcare PCP AUH
-</t>
+    <t xml:space="preserve">Nextcare PCP AUH</t>
   </si>
   <si>
     <t xml:space="preserve">15%</t>
@@ -587,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L444"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -679,7 +678,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -714,7 +713,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -749,7 +748,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -784,7 +783,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -819,7 +818,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -854,7 +853,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -889,7 +888,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -924,7 +923,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -959,7 +958,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +993,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1683,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>23</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>28</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>25</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>25</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>25</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>25</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>28</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4182,7 +4181,7 @@
       </c>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4214,7 @@
       </c>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -4248,7 +4247,7 @@
       </c>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -4347,7 +4346,7 @@
       </c>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
@@ -4380,7 +4379,7 @@
       </c>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>19</v>
       </c>
@@ -4413,7 +4412,7 @@
       </c>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -4446,7 +4445,7 @@
       </c>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -4479,7 +4478,7 @@
       </c>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -4545,7 +4544,7 @@
       </c>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>23</v>
       </c>
@@ -4578,7 +4577,7 @@
       </c>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>23</v>
       </c>
@@ -4611,7 +4610,7 @@
       </c>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>23</v>
       </c>
@@ -4677,7 +4676,7 @@
       </c>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>25</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>25</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>28</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
@@ -4998,7 +4997,7 @@
       </c>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -5031,7 +5030,7 @@
       </c>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5063,7 @@
       </c>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -5097,7 +5096,7 @@
       </c>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -5131,7 +5130,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>19</v>
       </c>
@@ -5164,7 +5163,7 @@
       </c>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
@@ -5197,7 +5196,7 @@
       </c>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5229,7 @@
       </c>
       <c r="K129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -5263,7 +5262,7 @@
       </c>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -5296,7 +5295,7 @@
       </c>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -5329,7 +5328,7 @@
       </c>
       <c r="K132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -5362,7 +5361,7 @@
       </c>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -5395,7 +5394,7 @@
       </c>
       <c r="K134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>23</v>
       </c>
@@ -5428,7 +5427,7 @@
       </c>
       <c r="K135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
@@ -5461,7 +5460,7 @@
       </c>
       <c r="K136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>23</v>
       </c>
@@ -5494,7 +5493,7 @@
       </c>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>25</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>25</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>25</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -5815,7 +5814,7 @@
       </c>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -5848,7 +5847,7 @@
       </c>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -5881,7 +5880,7 @@
       </c>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -5914,7 +5913,7 @@
       </c>
       <c r="K149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>19</v>
       </c>
@@ -5947,7 +5946,7 @@
       </c>
       <c r="K150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>19</v>
       </c>
@@ -5980,7 +5979,7 @@
       </c>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>19</v>
       </c>
@@ -6013,7 +6012,7 @@
       </c>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>19</v>
       </c>
@@ -6046,7 +6045,7 @@
       </c>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -6079,7 +6078,7 @@
       </c>
       <c r="K154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -6112,7 +6111,7 @@
       </c>
       <c r="K155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -6145,7 +6144,7 @@
       </c>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -6178,7 +6177,7 @@
       </c>
       <c r="K157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>23</v>
       </c>
@@ -6211,7 +6210,7 @@
       </c>
       <c r="K158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>23</v>
       </c>
@@ -6244,7 +6243,7 @@
       </c>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>23</v>
       </c>
@@ -6277,7 +6276,7 @@
       </c>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>23</v>
       </c>
@@ -6310,7 +6309,7 @@
       </c>
       <c r="K161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>25</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>25</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>25</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>28</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>28</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>28</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>28</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>25</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>25</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>25</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>28</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>28</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>28</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>28</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>25</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>25</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>25</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>28</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>28</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>28</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>28</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>25</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>25</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>25</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>25</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>28</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>28</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>28</v>
       </c>
@@ -10224,7 +10223,13 @@
       <c r="J444" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I19"/>
+  <autoFilter ref="A1:I19">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Plan 6"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
